--- a/Ozone_Anomaly.xlsx
+++ b/Ozone_Anomaly.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_17E970A0D3C0DEA3F0A81ED04B5ED87656CF1057" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3B5607-5F54-4855-9BC0-9D83AF66B8DB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_17E970A0D3C0DEA3F0A81ED04B5ED87656CF1057" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA2C9FE-E937-48CE-B037-3DEC6519380D}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -45,14 +45,14 @@
   <si>
     <t>Anomaly</t>
   </si>
+  <si>
+    <t>TCO_non</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,12 +102,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,16 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -429,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -443,9 +455,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
       <c r="B2">
@@ -469,9 +485,13 @@
       <c r="H2">
         <v>-0.9675871649442177</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="I2">
+        <v>-0.98089954941811097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
       <c r="B3">
@@ -495,9 +515,13 @@
       <c r="H3">
         <v>-1.262219539515846</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="I3">
+        <v>-1.2794842155813091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
       <c r="B4">
@@ -521,9 +545,13 @@
       <c r="H4">
         <v>-0.58001815434499837</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="I4">
+        <v>-0.58813156588195159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
       <c r="B5">
@@ -547,9 +575,13 @@
       <c r="H5">
         <v>-0.18691979067790551</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="I5">
+        <v>-0.1897600567920581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
       <c r="B6">
@@ -573,9 +605,13 @@
       <c r="H6">
         <v>-6.3140066700554262E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="I6">
+        <v>-6.4319912560504344E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
       <c r="B7">
@@ -599,9 +635,13 @@
       <c r="H7">
         <v>-0.22065747528116431</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="I7">
+        <v>-0.2239503093365364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
       <c r="B8">
@@ -625,9 +665,13 @@
       <c r="H8">
         <v>0.43322029173944532</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="I8">
+        <v>0.43869878026621423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
       <c r="B9">
@@ -651,9 +695,13 @@
       <c r="H9">
         <v>0.74107452080954761</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="I9">
+        <v>0.75068266305394338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
       <c r="B10">
@@ -677,9 +725,13 @@
       <c r="H10">
         <v>1.1611928172577739</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="I10">
+        <v>1.176436558824651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
       <c r="B11">
@@ -703,9 +755,13 @@
       <c r="H11">
         <v>1.4163078952152359</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="I11">
+        <v>1.4349738308942159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
       <c r="B12">
@@ -729,9 +785,13 @@
       <c r="H12">
         <v>1.113226354510694</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="I12">
+        <v>1.1278266588189589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
       <c r="B13">
@@ -755,9 +815,13 @@
       <c r="H13">
         <v>0.49352784804019512</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="I13">
+        <v>0.49981532114655108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
       <c r="B14">
@@ -781,9 +845,13 @@
       <c r="H14">
         <v>1.534405650422153</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="I14">
+        <v>1.55465578663431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
       <c r="B15">
@@ -807,9 +875,13 @@
       <c r="H15">
         <v>1.068061855052715</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="I15">
+        <v>1.082056308521592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
       <c r="B16">
@@ -833,9 +905,13 @@
       <c r="H16">
         <v>-8.3909939852044729E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="I16">
+        <v>-8.536839934070399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
       <c r="B17">
@@ -859,9 +935,13 @@
       <c r="H17">
         <v>0.69104768886818102</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="I17">
+        <v>0.69998475541180827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
       <c r="B18">
@@ -885,9 +965,13 @@
       <c r="H18">
         <v>0.40177766194236919</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="I18">
+        <v>0.40683436911688681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
       <c r="B19">
@@ -911,9 +995,13 @@
       <c r="H19">
         <v>0.29363079205347792</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="I19">
+        <v>0.29723678300871409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
       <c r="B20">
@@ -937,9 +1025,13 @@
       <c r="H20">
         <v>-0.46051207712223707</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="I20">
+        <v>-0.46702239645034621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
       <c r="B21">
@@ -963,9 +1055,13 @@
       <c r="H21">
         <v>-0.73172439916933907</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="I21">
+        <v>-0.74187284611840409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
       <c r="B22">
@@ -989,9 +1085,13 @@
       <c r="H22">
         <v>-0.93900722234957534</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="I22">
+        <v>-0.95193622646016474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
       <c r="B23">
@@ -1015,9 +1115,13 @@
       <c r="H23">
         <v>-0.54321322774168523</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="I23">
+        <v>-0.5508329263859052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
       <c r="B24">
@@ -1041,9 +1145,13 @@
       <c r="H24">
         <v>-0.63766782221297569</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="I24">
+        <v>-0.64655456457585281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
       <c r="B25">
@@ -1067,9 +1175,13 @@
       <c r="H25">
         <v>-0.34317636148255248</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="I25">
+        <v>-0.34811270251656617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
       <c r="B26">
@@ -1093,9 +1205,13 @@
       <c r="H26">
         <v>0.1239254232641248</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="I26">
+        <v>0.1252549328819467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
       <c r="B27">
@@ -1119,9 +1235,13 @@
       <c r="H27">
         <v>-0.38412279780698733</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="I27">
+        <v>-0.38960840725125329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
       <c r="B28">
@@ -1145,9 +1265,13 @@
       <c r="H28">
         <v>-0.32560069505657963</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="I28">
+        <v>-0.33030127055826652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
       <c r="B29">
@@ -1171,9 +1295,13 @@
       <c r="H29">
         <v>0.30174807476720139</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="I29">
+        <v>0.30546295351273051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
       <c r="B30">
@@ -1197,9 +1325,13 @@
       <c r="H30">
         <v>-5.7819416213786931E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="I30">
+        <v>-5.892788919011855E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
       <c r="B31">
@@ -1223,9 +1355,13 @@
       <c r="H31">
         <v>-5.8906666390004567E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="I31">
+        <v>-6.0029724083089202E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
       <c r="B32">
@@ -1249,9 +1385,13 @@
       <c r="H32">
         <v>-0.38952367104773078</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="I32">
+        <v>-0.39508172950893711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
       <c r="B33">
@@ -1275,9 +1415,13 @@
       <c r="H33">
         <v>-0.37517454889066482</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="I33">
+        <v>-0.38054012370193202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
       <c r="B34">
@@ -1301,9 +1445,13 @@
       <c r="H34">
         <v>-0.39277304042215511</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="I34">
+        <v>-0.39837468694891298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
       <c r="B35">
@@ -1327,9 +1475,13 @@
       <c r="H35">
         <v>-0.61929311083344563</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="I35">
+        <v>-0.62793336902299168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
       <c r="B36">
@@ -1353,9 +1505,13 @@
       <c r="H36">
         <v>-0.60314138623143387</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="I36">
+        <v>-0.61156498009335236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
       <c r="B37">
@@ -1379,9 +1535,13 @@
       <c r="H37">
         <v>0.49237033290170668</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="I37">
+        <v>0.49864227873494599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
       <c r="B38">
@@ -1405,9 +1565,13 @@
       <c r="H38">
         <v>1.1393222943644641</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="I38">
+        <v>1.1542726578398801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
       <c r="B39">
@@ -1431,9 +1595,13 @@
       <c r="H39">
         <v>1.3427497331482281</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="I39">
+        <v>1.36042893644299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
       <c r="B40">
@@ -1457,9 +1625,13 @@
       <c r="H40">
         <v>1.6569673480413569</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="I40">
+        <v>1.6788615655180159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
       <c r="B41">
@@ -1483,9 +1655,13 @@
       <c r="H41">
         <v>2.1009251637699959</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="I41">
+        <v>2.128774771399101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
       <c r="B42">
@@ -1509,9 +1685,13 @@
       <c r="H42">
         <v>2.018334928805928</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="I42">
+        <v>2.0450766449765041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
       <c r="B43">
@@ -1535,9 +1715,13 @@
       <c r="H43">
         <v>1.451265843697032</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="I43">
+        <v>1.470400716321737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
       <c r="B44">
@@ -1561,9 +1745,13 @@
       <c r="H44">
         <v>1.132499552957748</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="I44">
+        <v>1.147358394028227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
       <c r="B45">
@@ -1587,9 +1775,13 @@
       <c r="H45">
         <v>0.64147307243317908</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="I45">
+        <v>0.64974512943745677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
       <c r="B46">
@@ -1613,9 +1805,13 @@
       <c r="H46">
         <v>0.73313313135055413</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="I46">
+        <v>0.74263474529224793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
       <c r="B47">
@@ -1639,9 +1835,13 @@
       <c r="H47">
         <v>0.77414392112849506</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="I47">
+        <v>0.78419566673796182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
       <c r="B48">
@@ -1665,9 +1865,13 @@
       <c r="H48">
         <v>0.80126313278795402</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="I48">
+        <v>0.8116786640552851</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
       <c r="B49">
@@ -1691,9 +1895,13 @@
       <c r="H49">
         <v>1.0856170776602601</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="I49">
+        <v>1.0998470224216359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
       <c r="B50">
@@ -1717,9 +1925,13 @@
       <c r="H50">
         <v>0.43067568805660289</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="I50">
+        <v>0.43612004246707109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
       <c r="B51">
@@ -1743,9 +1955,13 @@
       <c r="H51">
         <v>0.34523880429247072</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="I51">
+        <v>0.34953708139964917</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
       <c r="B52">
@@ -1769,9 +1985,13 @@
       <c r="H52">
         <v>0.98737875586942325</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="I52">
+        <v>1.0002909008005929</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
       <c r="B53">
@@ -1795,9 +2015,13 @@
       <c r="H53">
         <v>8.8774984269268498E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="I53">
+        <v>8.9632974812917543E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
       <c r="B54">
@@ -1821,9 +2045,13 @@
       <c r="H54">
         <v>-0.35250819680203838</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="I54">
+        <v>-0.35756971801803561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
       <c r="B55">
@@ -1847,9 +2075,13 @@
       <c r="H55">
         <v>-0.13370758123169799</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="I55">
+        <v>-0.13583404198665039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
       <c r="B56">
@@ -1873,9 +2105,13 @@
       <c r="H56">
         <v>-0.44695035126630722</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="I56">
+        <v>-0.45327874932678408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
       <c r="B57">
@@ -1899,9 +2135,13 @@
       <c r="H57">
         <v>-1.1111642839771141</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="I57">
+        <v>-1.126402657206047</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
       <c r="B58">
@@ -1925,9 +2165,13 @@
       <c r="H58">
         <v>-1.0932688806511739</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="I58">
+        <v>-1.108267199296167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
       <c r="B59">
@@ -1951,9 +2195,13 @@
       <c r="H59">
         <v>-0.84369054320815895</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="I59">
+        <v>-0.8553409393244481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
       <c r="B60">
@@ -1977,9 +2225,13 @@
       <c r="H60">
         <v>-1.0119219766593901</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="I60">
+        <v>-1.025829082279629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
       <c r="B61">
@@ -2003,9 +2255,13 @@
       <c r="H61">
         <v>-0.43315148177360208</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="I61">
+        <v>-0.43929477744691442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
       <c r="B62">
@@ -2029,9 +2285,13 @@
       <c r="H62">
         <v>-1.4102183527229899E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="I62">
+        <v>-1.462421975707366E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
       <c r="B63">
@@ -2055,9 +2315,13 @@
       <c r="H63">
         <v>0.45997768892217622</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="I63">
+        <v>0.46581510961331218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
       <c r="B64">
@@ -2081,9 +2345,13 @@
       <c r="H64">
         <v>0.49243676527061181</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="I64">
+        <v>0.49870960224859873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
       <c r="B65">
@@ -2107,9 +2375,13 @@
       <c r="H65">
         <v>-0.4386375983215422</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="I65">
+        <v>-0.44485448649240111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
       <c r="B66">
@@ -2133,9 +2405,13 @@
       <c r="H66">
         <v>-1.1134997175628421</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="I66">
+        <v>-1.128769419034426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
       <c r="B67">
@@ -2159,9 +2435,13 @@
       <c r="H67">
         <v>-0.97573404008283915</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="I67">
+        <v>-0.98915570930914554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
       <c r="B68">
@@ -2185,9 +2465,13 @@
       <c r="H68">
         <v>-0.51686220111075931</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="I68">
+        <v>-0.52412841877335237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
       <c r="B69">
@@ -2211,9 +2495,13 @@
       <c r="H69">
         <v>-0.2469668527419627</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="I69">
+        <v>-0.25061260908385852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
       <c r="B70">
@@ -2237,9 +2525,13 @@
       <c r="H70">
         <v>0.1164495321003659</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="I70">
+        <v>0.1176787577564236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
       <c r="B71">
@@ -2263,9 +2555,13 @@
       <c r="H71">
         <v>0.22555872554299811</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="I71">
+        <v>0.22825157632997789</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
       <c r="B72">
@@ -2289,9 +2585,13 @@
       <c r="H72">
         <v>1.1117839528696729</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="I72">
+        <v>1.126364908347431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
       <c r="B73">
@@ -2315,9 +2615,13 @@
       <c r="H73">
         <v>1.804736944667426</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="I73">
+        <v>1.8286133901157531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
       <c r="B74">
@@ -2341,9 +2645,13 @@
       <c r="H74">
         <v>2.1912774577705272</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="I74">
+        <v>2.2203390795660209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
       <c r="B75">
@@ -2367,9 +2675,13 @@
       <c r="H75">
         <v>1.4031983576329961</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="I75">
+        <v>1.4216884378404551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
       <c r="B76">
@@ -2393,9 +2705,13 @@
       <c r="H76">
         <v>0.71810566221194805</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="I76">
+        <v>0.7274056929433601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
       <c r="B77">
@@ -2419,9 +2735,13 @@
       <c r="H77">
         <v>0.73108237094995165</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="I77">
+        <v>0.74055647534487745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
       <c r="B78">
@@ -2445,9 +2765,13 @@
       <c r="H78">
         <v>0.83574344708324622</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="I78">
+        <v>0.84662150816069104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
       <c r="B79">
@@ -2471,9 +2795,13 @@
       <c r="H79">
         <v>-0.69848846873445603</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="I79">
+        <v>-0.70819107843095586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
       <c r="B80">
@@ -2497,9 +2825,13 @@
       <c r="H80">
         <v>-1.4401538548845541</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="I80">
+        <v>-1.459805397972034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
       <c r="B81">
@@ -2523,9 +2855,13 @@
       <c r="H81">
         <v>-1.513247633910147</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="I81">
+        <v>-1.5338796800012731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
       <c r="B82">
@@ -2549,9 +2885,13 @@
       <c r="H82">
         <v>-1.2028049539263641</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="I82">
+        <v>-1.2192726240029801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
       <c r="B83">
@@ -2575,9 +2915,13 @@
       <c r="H83">
         <v>-1.118649308859466</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="I83">
+        <v>-1.133988088572744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
       <c r="B84">
@@ -2601,9 +2945,13 @@
       <c r="H84">
         <v>-1.334892061213846</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="I84">
+        <v>-1.3531315894043101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
       <c r="B85">
@@ -2627,9 +2975,13 @@
       <c r="H85">
         <v>-1.84367098312053</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="I85">
+        <v>-1.8687354322245331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
       <c r="B86">
@@ -2653,9 +3005,13 @@
       <c r="H86">
         <v>-1.4840901884360049</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="I86">
+        <v>-1.504331107358073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
       <c r="B87">
@@ -2679,9 +3035,13 @@
       <c r="H87">
         <v>-1.2323698721883021</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="I87">
+        <v>-1.249234135402457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
       <c r="B88">
@@ -2705,9 +3065,13 @@
       <c r="H88">
         <v>-1.308753735014266</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="I88">
+        <v>-1.326642635453769</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
       <c r="B89">
@@ -2731,9 +3095,13 @@
       <c r="H89">
         <v>-1.505280817613879</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="I89">
+        <v>-1.525805994318689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
       <c r="B90">
@@ -2757,9 +3125,13 @@
       <c r="H90">
         <v>-1.1185936183744081</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="I90">
+        <v>-1.1339316510379569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
       <c r="B91">
@@ -2783,9 +3155,13 @@
       <c r="H91">
         <v>-1.5743610042981011</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="I91">
+        <v>-1.5958128444131121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
       <c r="B92">
@@ -2809,9 +3185,13 @@
       <c r="H92">
         <v>-1.4306222854614481</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="I92">
+        <v>-1.450145969070687</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
       <c r="B93">
@@ -2835,9 +3215,13 @@
       <c r="H93">
         <v>-1.0067646999250319</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="I93">
+        <v>-1.020602624208691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
       <c r="B94">
@@ -2861,9 +3245,13 @@
       <c r="H94">
         <v>-7.2049402339619345E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="I94">
+        <v>-7.334876083759484E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
       <c r="B95">
@@ -2887,9 +3275,13 @@
       <c r="H95">
         <v>0.75312378492133258</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="I95">
+        <v>0.7628935597945351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
       <c r="B96">
@@ -2913,9 +3305,13 @@
       <c r="H96">
         <v>0.33317257302774128</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="I96">
+        <v>0.33730898990337238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
       <c r="B97">
@@ -2939,9 +3335,13 @@
       <c r="H97">
         <v>0.67332082382825065</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="I97">
+        <v>0.68202009661365948</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
       <c r="B98">
@@ -2965,9 +3365,13 @@
       <c r="H98">
         <v>0.18523084968032091</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="I98">
+        <v>0.1873827296221596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
       <c r="B99">
@@ -2991,9 +3395,13 @@
       <c r="H99">
         <v>-0.15265209494730569</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="I99">
+        <v>-0.1550326833838255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
       <c r="B100">
@@ -3017,9 +3425,13 @@
       <c r="H100">
         <v>3.4441204980557028E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="I100">
+        <v>3.4570345073425837E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
       <c r="B101">
@@ -3043,9 +3455,13 @@
       <c r="H101">
         <v>-5.2959762523760043E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="I101">
+        <v>-5.4003046572890567E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
       <c r="B102">
@@ -3069,9 +3485,13 @@
       <c r="H102">
         <v>0.24035518100298189</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="I102">
+        <v>0.24324651610990289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
       <c r="B103">
@@ -3095,9 +3515,13 @@
       <c r="H103">
         <v>0.175797451231264</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="I103">
+        <v>0.1778227885912689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
       <c r="B104">
@@ -3121,9 +3545,13 @@
       <c r="H104">
         <v>-0.18723864454837461</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="I104">
+        <v>-0.19008318786890349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
       <c r="B105">
@@ -3147,9 +3575,13 @@
       <c r="H105">
         <v>-0.60434769437317937</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="I105">
+        <v>-0.61278747003294809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
       <c r="B106">
@@ -3173,9 +3605,13 @@
       <c r="H106">
         <v>-0.67344490769053422</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="I106">
+        <v>-0.68281157516113045</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
       <c r="B107">
@@ -3199,9 +3635,13 @@
       <c r="H107">
         <v>-0.78927939596346253</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="I107">
+        <v>-0.80019990379081007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
       <c r="B108">
@@ -3225,9 +3665,13 @@
       <c r="H108">
         <v>-1.0725444819178951</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="I108">
+        <v>-1.0872647969423661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
       <c r="B109">
@@ -3251,9 +3695,13 @@
       <c r="H109">
         <v>-0.9997730656291568</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="I109">
+        <v>-1.0135172019253991</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
       <c r="B110">
@@ -3277,9 +3725,13 @@
       <c r="H110">
         <v>-1.4816242859063831</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="I110">
+        <v>-1.5018321264342389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
       <c r="B111">
@@ -3303,9 +3755,13 @@
       <c r="H111">
         <v>-1.5511849358009651</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="I111">
+        <v>-1.5723258848240509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
       <c r="B112">
@@ -3329,9 +3785,13 @@
       <c r="H112">
         <v>-1.7237224937514439</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="I112">
+        <v>-1.7471779159905469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
       <c r="B113">
@@ -3355,9 +3815,13 @@
       <c r="H113">
         <v>-1.7412095026181671</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="I113">
+        <v>-1.764899501109138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
       <c r="B114">
@@ -3381,9 +3845,13 @@
       <c r="H114">
         <v>-1.1541344850329689</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="I114">
+        <v>-1.169949274090502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
       <c r="B115">
@@ -3407,9 +3875,13 @@
       <c r="H115">
         <v>-1.268357379221422</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="I115">
+        <v>-1.2857043902044041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
       <c r="B116">
@@ -3433,9 +3905,13 @@
       <c r="H116">
         <v>-1.0109970758736551</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="I116">
+        <v>-1.024891774583065</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
       <c r="B117">
@@ -3459,9 +3935,13 @@
       <c r="H117">
         <v>-0.99794695835084113</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="I117">
+        <v>-1.011666598668147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
       <c r="B118">
@@ -3485,9 +3965,13 @@
       <c r="H118">
         <v>-0.88466520506770308</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="I118">
+        <v>-0.89686524822047398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
       <c r="B119">
@@ -3511,9 +3995,13 @@
       <c r="H119">
         <v>-0.44897920216642873</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="I119">
+        <v>-0.45533481587272451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
       <c r="B120">
@@ -3537,9 +4025,13 @@
       <c r="H120">
         <v>0.2146012100886098</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="I120">
+        <v>0.21714707330758101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
       <c r="B121">
@@ -3563,9 +4055,13 @@
       <c r="H121">
         <v>0.19909346283092871</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="I121">
+        <v>0.2014313002374622</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
       <c r="B122">
@@ -3589,9 +4085,13 @@
       <c r="H122">
         <v>-0.1127234091979117</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="I122">
+        <v>-0.11456838165136379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
       <c r="B123">
@@ -3615,9 +4115,13 @@
       <c r="H123">
         <v>2.248664382323939E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="I123">
+        <v>2.245542166259935E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
       <c r="B124">
@@ -3641,9 +4145,13 @@
       <c r="H124">
         <v>0.36889478075236892</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="I124">
+        <v>0.37351038658823438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
       <c r="B125">
@@ -3667,9 +4175,13 @@
       <c r="H125">
         <v>0.7667750141946571</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="I125">
+        <v>0.77672791096255978</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
       <c r="B126">
@@ -3693,9 +4205,13 @@
       <c r="H126">
         <v>0.37382371684868659</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="I126">
+        <v>0.37850544098780092</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
       <c r="B127">
@@ -3719,9 +4235,13 @@
       <c r="H127">
         <v>0.76699523003285452</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="I127">
+        <v>0.77695108084546083</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
       <c r="B128">
@@ -3745,9 +4265,13 @@
       <c r="H128">
         <v>0.23708749028706649</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="I128">
+        <v>0.23993499156018311</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
       <c r="B129">
@@ -3771,9 +4295,13 @@
       <c r="H129">
         <v>-0.18026615669091381</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="I129">
+        <v>-0.18301716886038899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
       <c r="B130">
@@ -3797,9 +4325,13 @@
       <c r="H130">
         <v>0.29357737016320162</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="I130">
+        <v>0.29718264450035392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
       <c r="B131">
@@ -3823,9 +4355,13 @@
       <c r="H131">
         <v>0.3770480505174798</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="I131">
+        <v>0.38177302688529469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
       <c r="B132">
@@ -3849,9 +4385,13 @@
       <c r="H132">
         <v>-0.2215463492065386</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="I132">
+        <v>-0.22485110689707241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
       <c r="B133">
@@ -3875,9 +4415,13 @@
       <c r="H133">
         <v>-1.343751642755429</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="I133">
+        <v>-1.362110016166763</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
       <c r="B134">
@@ -3901,9 +4445,13 @@
       <c r="H134">
         <v>-1.551941985326422</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="I134">
+        <v>-1.573093089650595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
       <c r="B135">
@@ -3927,9 +4475,13 @@
       <c r="H135">
         <v>-1.6476704107927289</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="I135">
+        <v>-1.670105646406258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
       <c r="B136">
@@ -3953,9 +4505,13 @@
       <c r="H136">
         <v>-2.0384314416529081</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="I136">
+        <v>-2.0661084689698348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
       <c r="B137">
@@ -3979,9 +4535,13 @@
       <c r="H137">
         <v>-1.426330386620855</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="I137">
+        <v>-1.445796497345498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
       <c r="B138">
@@ -4005,9 +4565,13 @@
       <c r="H138">
         <v>-0.83786036103939177</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="I138">
+        <v>-0.84943254925338763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
       <c r="B139">
@@ -4031,9 +4595,13 @@
       <c r="H139">
         <v>-0.37005774793418478</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="I139">
+        <v>-0.37535468436372138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
       <c r="B140">
@@ -4057,9 +4625,13 @@
       <c r="H140">
         <v>-0.12096003339178379</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="I140">
+        <v>-0.1229154945197805</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
       <c r="B141">
@@ -4083,9 +4655,13 @@
       <c r="H141">
         <v>0.28994799183547199</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="I141">
+        <v>0.29350458054712852</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
       <c r="B142">
@@ -4109,9 +4685,13 @@
       <c r="H142">
         <v>0.44525811492909539</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="I142">
+        <v>0.45089808261253339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
       <c r="B143">
@@ -4135,9 +4715,13 @@
       <c r="H143">
         <v>0.81935027143367878</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="I143">
+        <v>0.8300084292829969</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
       <c r="B144">
@@ -4161,9 +4745,13 @@
       <c r="H144">
         <v>1.088600444432088</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="I144">
+        <v>1.102870409016214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
       <c r="B145">
@@ -4187,9 +4775,13 @@
       <c r="H145">
         <v>0.27109182953248889</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="I145">
+        <v>0.27439547573629058</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
       <c r="B146">
@@ -4213,9 +4805,13 @@
       <c r="H146">
         <v>0.32925901000546792</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="I146">
+        <v>0.33334292911248647</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
       <c r="B147">
@@ -4239,9 +4835,13 @@
       <c r="H147">
         <v>0.18207761862781499</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="I147">
+        <v>0.1841872001338718</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
       <c r="B148">
@@ -4265,9 +4865,13 @@
       <c r="H148">
         <v>-0.2218513593925408</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="I148">
+        <v>-0.22516020858590161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
       <c r="B149">
@@ -4291,9 +4895,13 @@
       <c r="H149">
         <v>-0.23734645919130201</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="I149">
+        <v>-0.2408631645400979</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
       <c r="B150">
@@ -4317,9 +4925,13 @@
       <c r="H150">
         <v>1.399376953243862</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="I150">
+        <v>1.417815771927678</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
       <c r="B151">
@@ -4343,9 +4955,13 @@
       <c r="H151">
         <v>1.5994890749740529</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="I151">
+        <v>1.620612260768697</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
       <c r="B152">
@@ -4369,9 +4985,13 @@
       <c r="H152">
         <v>1.0144331544621721</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="I152">
+        <v>1.0277082156282891</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
       <c r="B153">
@@ -4395,9 +5015,13 @@
       <c r="H153">
         <v>0.84210921942273109</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="I153">
+        <v>0.85307267297792977</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
       <c r="B154">
@@ -4421,9 +5045,13 @@
       <c r="H154">
         <v>0.6945156422322516</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="I154">
+        <v>0.70349922899600303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
       <c r="B155">
@@ -4447,9 +5075,13 @@
       <c r="H155">
         <v>0.65405897403386337</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="I155">
+        <v>0.66249986229146485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
       <c r="B156">
@@ -4473,9 +5105,13 @@
       <c r="H156">
         <v>0.63947027902650777</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="I156">
+        <v>0.64771546992840157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
       <c r="B157">
@@ -4499,9 +5135,13 @@
       <c r="H157">
         <v>0.4952091937059086</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="I157">
+        <v>0.50151922091327528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
       <c r="B158">
@@ -4525,9 +5165,13 @@
       <c r="H158">
         <v>0.37236481705572239</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="I158">
+        <v>0.37702697105291638</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
       <c r="B159">
@@ -4551,9 +5195,13 @@
       <c r="H159">
         <v>0.19741810863201259</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="I159">
+        <v>0.19973347230896049</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
       <c r="B160">
@@ -4577,9 +5225,13 @@
       <c r="H160">
         <v>-0.14581013142493379</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="I160">
+        <v>-0.14809893960499459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
       <c r="B161">
@@ -4603,9 +5255,13 @@
       <c r="H161">
         <v>-0.1443160187655067</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="I161">
+        <v>-0.14658478444715131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
       <c r="B162">
@@ -4629,9 +5285,13 @@
       <c r="H162">
         <v>-0.13602108933225501</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="I162">
+        <v>-0.13817858421448609</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
       <c r="B163">
@@ -4655,9 +5315,13 @@
       <c r="H163">
         <v>6.9275446654339006E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="I163">
+        <v>6.6876078417728631E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
       <c r="B164">
@@ -4681,9 +5345,13 @@
       <c r="H164">
         <v>-1.4206899336510511E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="I164">
+        <v>-1.4730340257244489E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
       <c r="B165">
@@ -4707,9 +5375,13 @@
       <c r="H165">
         <v>-0.2174834474308262</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="I165">
+        <v>-0.22073370407561149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
       <c r="B166">
@@ -4733,9 +5405,13 @@
       <c r="H166">
         <v>-2.328283278420443E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="I166">
+        <v>-2.3928021138509208E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
       <c r="B167">
@@ -4759,9 +5435,13 @@
       <c r="H167">
         <v>-0.86612848214209148</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="I167">
+        <v>-0.8780798678475582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
       <c r="B168">
@@ -4785,9 +5465,13 @@
       <c r="H168">
         <v>-0.97413700171289541</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="I168">
+        <v>-0.98753724776284479</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
       <c r="B169">
@@ -4811,9 +5495,13 @@
       <c r="H169">
         <v>-1.25051790342313</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="I169">
+        <v>-1.2676256100516661</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
       <c r="B170">
@@ -4837,9 +5525,13 @@
       <c r="H170">
         <v>-1.042250803022041</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="I170">
+        <v>-1.056564749083998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
       <c r="B171">
@@ -4863,9 +5555,13 @@
       <c r="H171">
         <v>-1.2620566022303981</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="I171">
+        <v>-1.2793190926037279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
       <c r="B172">
@@ -4889,9 +5585,13 @@
       <c r="H172">
         <v>-0.97225812407098</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="I172">
+        <v>-0.98563316626369357</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
       <c r="B173">
@@ -4915,9 +5615,13 @@
       <c r="H173">
         <v>-0.85326316266571123</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="I173">
+        <v>-0.86504196891834872</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
       <c r="B174">
@@ -4941,9 +5645,13 @@
       <c r="H174">
         <v>-0.85894195246357719</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="I174">
+        <v>-0.87079693579349959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
       <c r="B175">
@@ -4967,9 +5675,13 @@
       <c r="H175">
         <v>-0.69925076775950934</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="I175">
+        <v>-0.70896360317553964</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
       <c r="B176">
@@ -4993,9 +5705,13 @@
       <c r="H176">
         <v>-0.45106809569313311</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="I176">
+        <v>-0.45745173047597648</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
       <c r="B177">
@@ -5019,9 +5735,13 @@
       <c r="H177">
         <v>-0.17095003015149679</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="I177">
+        <v>-0.17357607286151841</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
       <c r="B178">
@@ -5045,9 +5765,13 @@
       <c r="H178">
         <v>0.32673645528957518</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="I178">
+        <v>0.33078653605208941</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
       <c r="B179">
@@ -5071,9 +5795,13 @@
       <c r="H179">
         <v>0.88272026055676045</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="I179">
+        <v>0.89422848342535277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
       <c r="B180">
@@ -5097,9 +5825,13 @@
       <c r="H180">
         <v>1.0632756387130009</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="I180">
+        <v>1.0772058883664539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
       <c r="B181">
@@ -5123,9 +5855,13 @@
       <c r="H181">
         <v>0.61750916732519345</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="I181">
+        <v>0.62545976494878641</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
       <c r="B182">
@@ -5149,9 +5885,13 @@
       <c r="H182">
         <v>0.82919071079007367</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="I182">
+        <v>0.83998087139632638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
       <c r="B183">
@@ -5175,9 +5915,13 @@
       <c r="H183">
         <v>0.84958290676956427</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="I183">
+        <v>0.86064661472383186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
       <c r="B184">
@@ -5201,9 +5945,13 @@
       <c r="H184">
         <v>0.44724330265952861</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="I184">
+        <v>0.45290990027725708</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
       <c r="B185">
@@ -5227,9 +5975,13 @@
       <c r="H185">
         <v>-0.1096206593368996</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="I185">
+        <v>-0.1114240105251928</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
       <c r="B186">
@@ -5253,9 +6005,13 @@
       <c r="H186">
         <v>-5.0350159345225763E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="I186">
+        <v>-5.1358437354321308E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
       <c r="B187">
@@ -5279,9 +6035,13 @@
       <c r="H187">
         <v>-0.39683124013284449</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="I187">
+        <v>-0.40248732463036779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
       <c r="B188">
@@ -5305,9 +6065,13 @@
       <c r="H188">
         <v>-0.6385496424975613</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="I188">
+        <v>-0.64744821387583806</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
       <c r="B189">
@@ -5331,9 +6095,13 @@
       <c r="H189">
         <v>-0.36512815722325809</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="I189">
+        <v>-0.37035896656833911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
       <c r="B190">
@@ -5357,9 +6125,13 @@
       <c r="H190">
         <v>-0.50959855780723917</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="I190">
+        <v>-0.51676733866780267</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
       <c r="B191">
@@ -5383,9 +6155,13 @@
       <c r="H191">
         <v>-3.0693238094720802E-3</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="I191">
+        <v>-3.4433617795968912E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
       <c r="B192">
@@ -5409,9 +6185,13 @@
       <c r="H192">
         <v>-3.252531436467411E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="I192">
+        <v>-3.3294484281727522E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
       <c r="B193">
@@ -5435,9 +6215,13 @@
       <c r="H193">
         <v>-0.73212226247570455</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="I193">
+        <v>-0.74227604648863643</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
       <c r="B194">
@@ -5461,9 +6245,13 @@
       <c r="H194">
         <v>-1.223259491399278</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="I194">
+        <v>-1.240001545092362</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
       <c r="B195">
@@ -5487,9 +6275,13 @@
       <c r="H195">
         <v>-1.34478440656232</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="I195">
+        <v>-1.3631566337930661</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
       <c r="B196">
@@ -5513,9 +6305,13 @@
       <c r="H196">
         <v>-1.342885220982496</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="I196">
+        <v>-1.3612319719389221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
       <c r="B197">
@@ -5539,9 +6335,13 @@
       <c r="H197">
         <v>-0.94032917137969829</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="I197">
+        <v>-0.95327590853148469</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
       <c r="B198">
@@ -5565,9 +6365,13 @@
       <c r="H198">
         <v>-0.63464975347115637</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="I198">
+        <v>-0.64349601050811367</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
       <c r="B199">
@@ -5591,9 +6395,13 @@
       <c r="H199">
         <v>2.502116423641559E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="I199">
+        <v>2.5023940931916941E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
       <c r="B200">
@@ -5617,9 +6425,13 @@
       <c r="H200">
         <v>-1.026847176661454</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="I200">
+        <v>-1.040954493621524</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
       <c r="B201">
@@ -5643,9 +6455,13 @@
       <c r="H201">
         <v>-1.0911522914682421</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="I201">
+        <v>-1.1061222175184211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
       <c r="B202">
@@ -5669,9 +6485,13 @@
       <c r="H202">
         <v>-1.2682284339372729</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="I202">
+        <v>-1.285573715207547</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
       <c r="B203">
@@ -5695,9 +6515,13 @@
       <c r="H203">
         <v>-1.5879970901632789</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="I203">
+        <v>-1.6096318490345369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
       <c r="B204">
@@ -5721,9 +6545,13 @@
       <c r="H204">
         <v>-1.1792395756753751</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="I204">
+        <v>-1.1953911323362501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
       <c r="B205">
@@ -5747,9 +6575,13 @@
       <c r="H205">
         <v>-0.92551864294836594</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="I205">
+        <v>-0.93826670700093517</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
       <c r="B206">
@@ -5773,9 +6605,13 @@
       <c r="H206">
         <v>9.7001887013813945E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="I206">
+        <v>9.7970235825420485E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
       <c r="B207">
@@ -5799,9 +6635,13 @@
       <c r="H207">
         <v>-0.13953398084327731</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="I207">
+        <v>-0.141738598760108</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
       <c r="B208">
@@ -5825,9 +6665,13 @@
       <c r="H208">
         <v>0.1434236845303126</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="I208">
+        <v>0.14501474997398231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
       <c r="B209">
@@ -5851,9 +6695,13 @@
       <c r="H209">
         <v>1.3482179768662541</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="I209">
+        <v>1.3659705329067859</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
       <c r="B210">
@@ -5877,9 +6725,13 @@
       <c r="H210">
         <v>0.67769769779349831</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="I210">
+        <v>0.68645568334662443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
       <c r="B211">
@@ -5903,9 +6755,13 @@
       <c r="H211">
         <v>0.17312423651457509</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="I211">
+        <v>0.17511371452931079</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
       <c r="B212">
@@ -5929,9 +6785,13 @@
       <c r="H212">
         <v>0.1189623302258859</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="I212">
+        <v>0.1202252633484678</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
       <c r="B213">
@@ -5955,9 +6815,13 @@
       <c r="H213">
         <v>0.15537146044696409</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="I213">
+        <v>0.15712279712478441</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
       <c r="B214">
@@ -5981,9 +6845,13 @@
       <c r="H214">
         <v>-3.9238472728652753E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="I214">
+        <v>-4.0097695069148773E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
       <c r="B215">
@@ -6007,9 +6875,13 @@
       <c r="H215">
         <v>-0.4449736483140776</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="I215">
+        <v>-0.45127553025775469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
       <c r="B216">
@@ -6033,9 +6905,13 @@
       <c r="H216">
         <v>-0.3020442568709833</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="I216">
+        <v>-0.30642883888178629</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
       <c r="B217">
@@ -6059,9 +6935,13 @@
       <c r="H217">
         <v>-0.47654384498250529</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="I217">
+        <v>-0.48326921950067719</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
       <c r="B218">
@@ -6085,9 +6965,13 @@
       <c r="H218">
         <v>-0.57986489982531542</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="I218">
+        <v>-0.5879762555578093</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
       <c r="B219">
@@ -6111,9 +6995,13 @@
       <c r="H219">
         <v>-0.5786399893769173</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="I219">
+        <v>-0.58673491377435283</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
       <c r="B220">
@@ -6137,9 +7025,13 @@
       <c r="H220">
         <v>-1.2329274581173471</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="I220">
+        <v>-1.2497992009650021</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
       <c r="B221">
@@ -6163,9 +7055,13 @@
       <c r="H221">
         <v>-1.6582446429305751</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="I221">
+        <v>-1.680821724628828</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
       <c r="B222">
@@ -6189,9 +7085,13 @@
       <c r="H222">
         <v>-1.518404774060258</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="I222">
+        <v>-1.539105999655779</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
       <c r="B223">
@@ -6215,9 +7115,13 @@
       <c r="H223">
         <v>-1.361028392055561</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="I223">
+        <v>-1.379618521230626</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
       <c r="B224">
@@ -6241,9 +7145,13 @@
       <c r="H224">
         <v>-1.090319645883663</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="I224">
+        <v>-1.105278402563376</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
       <c r="B225">
@@ -6267,9 +7175,13 @@
       <c r="H225">
         <v>-0.88647240625559509</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="I225">
+        <v>-0.89869669177504263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
       <c r="B226">
@@ -6293,9 +7205,13 @@
       <c r="H226">
         <v>-1.0865180360992741</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="I226">
+        <v>-1.1014257967864149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
       <c r="B227">
@@ -6319,9 +7235,13 @@
       <c r="H227">
         <v>-1.3205242849240331</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="I227">
+        <v>-1.3385710792321379</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
       <c r="B228">
@@ -6345,9 +7265,13 @@
       <c r="H228">
         <v>-1.7793193033307939</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="I228">
+        <v>-1.803520518707322</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
       <c r="B229">
@@ -6371,9 +7295,13 @@
       <c r="H229">
         <v>-1.322756792750877</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="I229">
+        <v>-1.340833534623044</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
       <c r="B230">
@@ -6397,9 +7325,13 @@
       <c r="H230">
         <v>-0.46187346625606829</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="I230">
+        <v>-0.46840204768736388</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
       <c r="B231">
@@ -6423,9 +7355,13 @@
       <c r="H231">
         <v>0.83406063639246775</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="I231">
+        <v>0.84491612371659353</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
       <c r="B232">
@@ -6449,9 +7385,13 @@
       <c r="H232">
         <v>1.6559246066771991</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="I232">
+        <v>1.677804836492347</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
       <c r="B233">
@@ -6475,9 +7415,13 @@
       <c r="H233">
         <v>1.9721695599750459</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="I233">
+        <v>1.998291999328818</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
       <c r="B234">
@@ -6501,9 +7445,13 @@
       <c r="H234">
         <v>2.005230023253171</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="I234">
+        <v>2.0317959460877302</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
       <c r="B235">
@@ -6527,9 +7475,13 @@
       <c r="H235">
         <v>1.5948687676628619</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="I235">
+        <v>1.615929975198114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
       <c r="B236">
@@ -6553,9 +7505,13 @@
       <c r="H236">
         <v>1.6324030395280711</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="I236">
+        <v>1.653967743623415</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
       <c r="B237">
@@ -6579,9 +7535,13 @@
       <c r="H237">
         <v>1.087547551707134</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="I237">
+        <v>1.1018033924561941</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
       <c r="B238">
@@ -6605,9 +7565,13 @@
       <c r="H238">
         <v>0.6219733242329496</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="I238">
+        <v>0.62998380546517729</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
       <c r="B239">
@@ -6631,9 +7595,13 @@
       <c r="H239">
         <v>-5.1240429716148957E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="I239">
+        <v>-5.2260650092767209E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
       <c r="B240">
@@ -6657,9 +7625,13 @@
       <c r="H240">
         <v>-0.1124571661273846</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+      <c r="I240">
+        <v>-0.11429856711232279</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
       <c r="B241">
@@ -6683,9 +7655,13 @@
       <c r="H241">
         <v>-0.67614755938469195</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="I241">
+        <v>-0.68555048107745664</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
       <c r="B242">
@@ -6709,9 +7685,13 @@
       <c r="H242">
         <v>-0.88619407314173726</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="I242">
+        <v>-0.89841462501301683</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
       <c r="B243">
@@ -6735,9 +7715,13 @@
       <c r="H243">
         <v>-0.92819810434482508</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="I243">
+        <v>-0.94098211153759592</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
       <c r="B244">
@@ -6761,9 +7745,13 @@
       <c r="H244">
         <v>-1.284211582183366</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="I244">
+        <v>-1.3017712664448651</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
       <c r="B245">
@@ -6787,9 +7775,13 @@
       <c r="H245">
         <v>-1.554523512707922</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="I245">
+        <v>-1.575709246454535</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
       <c r="B246">
@@ -6813,9 +7805,13 @@
       <c r="H246">
         <v>-1.558844659377105</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="I246">
+        <v>-1.5800883583479111</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
       <c r="B247">
@@ -6839,9 +7835,13 @@
       <c r="H247">
         <v>-1.1469360648524569</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="I247">
+        <v>-1.1626542920315019</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
       <c r="B248">
@@ -6865,9 +7865,13 @@
       <c r="H248">
         <v>-0.97221665999818996</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="I248">
+        <v>-0.98559114597875452</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
       <c r="B249">
@@ -6891,9 +7895,13 @@
       <c r="H249">
         <v>-0.77724950497164891</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="I249">
+        <v>-0.78800864004733062</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
       <c r="B250">
@@ -6917,9 +7925,13 @@
       <c r="H250">
         <v>-0.9610223552954229</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="I250">
+        <v>-0.97424667734232417</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
       <c r="B251">
@@ -6943,9 +7955,13 @@
       <c r="H251">
         <v>-1.303602766646407</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="I251">
+        <v>-1.321422570371747</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
       <c r="B252">
@@ -6969,9 +7985,13 @@
       <c r="H252">
         <v>-0.8618210025914772</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="I252">
+        <v>-0.87371460640778964</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
       <c r="B253">
@@ -6995,9 +8015,13 @@
       <c r="H253">
         <v>0.16484789756958981</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="I253">
+        <v>0.1667263541635845</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
       <c r="B254">
@@ -7021,9 +8045,13 @@
       <c r="H254">
         <v>0.77793998763502148</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="I254">
+        <v>0.78804265487778324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
       <c r="B255">
@@ -7047,9 +8075,13 @@
       <c r="H255">
         <v>0.9192701861810082</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="I255">
+        <v>0.93126870127878014</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
       <c r="B256">
@@ -7073,9 +8105,13 @@
       <c r="H256">
         <v>0.8927316833634078</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="I256">
+        <v>0.9043742026148599</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
       <c r="B257">
@@ -7099,9 +8135,13 @@
       <c r="H257">
         <v>1.2791235524761639</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="I257">
+        <v>1.295949254117418</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
       <c r="B258">
@@ -7125,9 +8165,13 @@
       <c r="H258">
         <v>1.369215569420225</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="I258">
+        <v>1.387249793789348</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
       <c r="B259">
@@ -7151,9 +8195,13 @@
       <c r="H259">
         <v>1.6118228147930229</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="I259">
+        <v>1.6331114492633261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
       <c r="B260">
@@ -7177,9 +8225,13 @@
       <c r="H260">
         <v>1.734810035146839</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="I260">
+        <v>1.757748458977805</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
       <c r="B261">
@@ -7203,9 +8255,13 @@
       <c r="H261">
         <v>1.4884578608167669</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="I261">
+        <v>1.50809163888847</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
       <c r="B262">
@@ -7229,9 +8285,13 @@
       <c r="H262">
         <v>0.73287623027224358</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="I262">
+        <v>0.74237439806185324</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
       <c r="B263">
@@ -7255,9 +8315,13 @@
       <c r="H263">
         <v>0.1900889669040442</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="I263">
+        <v>0.19230601516244039</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
       <c r="B264">
@@ -7281,9 +8345,13 @@
       <c r="H264">
         <v>-0.45383844193741502</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="I264">
+        <v>-0.46025923901847132</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
       <c r="B265">
@@ -7307,9 +8375,13 @@
       <c r="H265">
         <v>-0.37990115996760387</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="I265">
+        <v>-0.38533013903050217</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
       <c r="B266">
@@ -7333,9 +8405,13 @@
       <c r="H266">
         <v>-0.34138981193994572</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="I266">
+        <v>-0.34630218763496562</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
       <c r="B267">
@@ -7359,9 +8435,13 @@
       <c r="H267">
         <v>-0.84626946860344288</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="I267">
+        <v>-0.85795445923830749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
       <c r="B268">
@@ -7385,9 +8465,13 @@
       <c r="H268">
         <v>-0.28014083032065851</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="I268">
+        <v>-0.28423159285996841</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
       <c r="B269">
@@ -7411,9 +8495,13 @@
       <c r="H269">
         <v>-0.53317962230919902</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="I269">
+        <v>-0.54066472700582036</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
       <c r="B270">
@@ -7437,9 +8525,13 @@
       <c r="H270">
         <v>-0.82559013942615478</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="I270">
+        <v>-0.83699773101773534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
       <c r="B271">
@@ -7463,9 +8555,13 @@
       <c r="H271">
         <v>-1.301977350290882</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="I271">
+        <v>-1.3197753501686169</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
       <c r="B272">
@@ -7489,9 +8585,13 @@
       <c r="H272">
         <v>-0.99351384704581525</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="I272">
+        <v>-1.0071740202099919</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
       <c r="B273">
@@ -7515,9 +8615,13 @@
       <c r="H273">
         <v>-0.92154296933476632</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="I273">
+        <v>-0.93423770244766302</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
       <c r="B274">
@@ -7541,9 +8645,13 @@
       <c r="H274">
         <v>-1.113039352824035</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="I274">
+        <v>-1.128302878817826</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
       <c r="B275">
@@ -7567,9 +8675,13 @@
       <c r="H275">
         <v>-1.127224498827869</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="I275">
+        <v>-1.142678308843766</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
       <c r="B276">
@@ -7593,9 +8705,13 @@
       <c r="H276">
         <v>-1.223778559130603</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="I276">
+        <v>-1.240527575761935</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
       <c r="B277">
@@ -7619,9 +8735,13 @@
       <c r="H277">
         <v>-1.7935116083327149</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="I277">
+        <v>-1.8179032037644069</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
       <c r="B278">
@@ -7645,9 +8765,13 @@
       <c r="H278">
         <v>-1.2483361753605831</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="I278">
+        <v>-1.2654146156008299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
       <c r="B279">
@@ -7671,9 +8795,13 @@
       <c r="H279">
         <v>-1.6589141919056341</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="I279">
+        <v>-1.681500255144996</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
       <c r="B280">
@@ -7697,9 +8825,13 @@
       <c r="H280">
         <v>-1.2757850428698909</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="I280">
+        <v>-1.293231690875537</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
       <c r="B281">
@@ -7723,9 +8855,13 @@
       <c r="H281">
         <v>-0.94818217920704129</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="I281">
+        <v>-0.96123425908244953</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
       <c r="B282">
@@ -7749,9 +8885,13 @@
       <c r="H282">
         <v>-1.0587513149037859</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="I282">
+        <v>-1.073286604035939</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
       <c r="B283">
@@ -7775,9 +8915,13 @@
       <c r="H283">
         <v>-0.53895478717719236</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="I283">
+        <v>-0.54651736175668353</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
       <c r="B284">
@@ -7801,9 +8945,13 @@
       <c r="H284">
         <v>0.37481129553750708</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="I284">
+        <v>0.37950626736860882</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
       <c r="B285">
@@ -7827,9 +8975,13 @@
       <c r="H285">
         <v>0.80254165010998446</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="I285">
+        <v>0.81297433181188294</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
       <c r="B286">
@@ -7853,9 +9005,13 @@
       <c r="H286">
         <v>1.118767439183447</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="I286">
+        <v>1.1334420733490209</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
       <c r="B287">
@@ -7879,9 +9035,13 @@
       <c r="H287">
         <v>1.172016591893893</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="I287">
+        <v>1.1874055269872641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
       <c r="B288">
@@ -7905,9 +9065,13 @@
       <c r="H288">
         <v>1.2215591441519811</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="I288">
+        <v>1.237612658665721</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
       <c r="B289">
@@ -7931,9 +9095,13 @@
       <c r="H289">
         <v>1.2809272319133549</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="I289">
+        <v>1.2977771286794111</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
       <c r="B290">
@@ -7957,9 +9125,13 @@
       <c r="H290">
         <v>0.79432708282141717</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="I290">
+        <v>0.80464957172705498</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
       <c r="B291">
@@ -7983,9 +9155,13 @@
       <c r="H291">
         <v>0.63244846819561018</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="I291">
+        <v>0.64059946631252951</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
       <c r="B292">
@@ -8009,9 +9185,13 @@
       <c r="H292">
         <v>0.65619861049850381</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="I292">
+        <v>0.66466820051442532</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
       <c r="B293">
@@ -8035,9 +9215,13 @@
       <c r="H293">
         <v>0.1704739680018644</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="I293">
+        <v>0.1724278944789478</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
       <c r="B294">
@@ -8061,9 +9245,13 @@
       <c r="H294">
         <v>-0.44570231331008942</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="I294">
+        <v>-0.45201396979582431</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
       <c r="B295">
@@ -8087,9 +9275,13 @@
       <c r="H295">
         <v>-0.27242403924371422</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="I295">
+        <v>-0.27641128631385131</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
       <c r="B296">
@@ -8113,9 +9305,13 @@
       <c r="H296">
         <v>-0.36856464017947471</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="I296">
+        <v>-0.37384154759070398</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
       <c r="B297">
@@ -8139,9 +9335,13 @@
       <c r="H297">
         <v>-0.16595568818420481</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="I297">
+        <v>-0.16851473521599711</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
       <c r="B298">
@@ -8165,9 +9365,13 @@
       <c r="H298">
         <v>0.13631026681425951</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="I298">
+        <v>0.13780591062930689</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
       <c r="B299">
@@ -8191,9 +9395,13 @@
       <c r="H299">
         <v>-0.13013122779201369</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="I299">
+        <v>-0.13220971421404121</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
       <c r="B300">
@@ -8217,9 +9425,13 @@
       <c r="H300">
         <v>-3.8803479033074607E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="I300">
+        <v>-3.9656866230952922E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
       <c r="B301">
@@ -8243,9 +9455,13 @@
       <c r="H301">
         <v>-0.34893618456432418</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="I301">
+        <v>-0.35394978968164892</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
       <c r="B302">
@@ -8269,9 +9485,13 @@
       <c r="H302">
         <v>-1.2739026070168671</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="I302">
+        <v>-1.291324003434311</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
       <c r="B303">
@@ -8295,9 +9515,13 @@
       <c r="H303">
         <v>-0.69554028697686898</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="I303">
+        <v>-0.70520334883349589</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
       <c r="B304">
@@ -8321,9 +9545,13 @@
       <c r="H304">
         <v>-0.48472965869720491</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+      <c r="I304">
+        <v>-0.49156484030212949</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
       <c r="B305">
@@ -8347,9 +9575,13 @@
       <c r="H305">
         <v>-0.45328008546218168</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="I305">
+        <v>-0.45969339257338859</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
       <c r="B306">
@@ -8373,9 +9605,13 @@
       <c r="H306">
         <v>-0.5276692567108292</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+      <c r="I306">
+        <v>-0.53508044362549412</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
       <c r="B307">
@@ -8399,9 +9635,13 @@
       <c r="H307">
         <v>-0.27586988924339911</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+      <c r="I307">
+        <v>-0.2799033600321596</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
       <c r="B308">
@@ -8425,9 +9665,13 @@
       <c r="H308">
         <v>-0.44529615775935522</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+      <c r="I308">
+        <v>-0.4516023659464421</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
       <c r="B309">
@@ -8451,9 +9695,13 @@
       <c r="H309">
         <v>-0.51956349332079721</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+      <c r="I309">
+        <v>-0.52686594696901012</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
       <c r="B310">
@@ -8477,9 +9725,13 @@
       <c r="H310">
         <v>-0.3625707974364395</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+      <c r="I310">
+        <v>-0.3677673015508181</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
       <c r="B311">
@@ -8503,9 +9755,13 @@
       <c r="H311">
         <v>-0.64989884698977762</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+      <c r="I311">
+        <v>-0.65894966017634449</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
       <c r="B312">
@@ -8529,9 +9785,13 @@
       <c r="H312">
         <v>-8.0784801846501234E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+      <c r="I312">
+        <v>-8.2201339748370308E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
       <c r="B313">
@@ -8555,9 +9815,13 @@
       <c r="H313">
         <v>0.96842936620610931</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+      <c r="I313">
+        <v>0.98108731804821103</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
       <c r="B314">
@@ -8581,9 +9845,13 @@
       <c r="H314">
         <v>0.67420501792496434</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="I314">
+        <v>0.68291615156883734</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
       <c r="B315">
@@ -8607,9 +9875,13 @@
       <c r="H315">
         <v>1.353066877726196</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+      <c r="I315">
+        <v>1.3708844784520751</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
       <c r="B316">
@@ -8633,9 +9905,13 @@
       <c r="H316">
         <v>1.4058656233539091</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+      <c r="I316">
+        <v>1.424391483104932</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
       <c r="B317">
@@ -8659,9 +9935,13 @@
       <c r="H317">
         <v>0.91931005564838086</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+      <c r="I317">
+        <v>0.93130910556776192</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
       <c r="B318">
@@ -8685,9 +9965,13 @@
       <c r="H318">
         <v>0.8298638892889636</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+      <c r="I318">
+        <v>0.84066308012390267</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
       <c r="B319">
@@ -8711,9 +9995,13 @@
       <c r="H319">
         <v>1.0639274967113641</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+      <c r="I319">
+        <v>1.077866490593586</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
       <c r="B320">
@@ -8737,9 +10025,13 @@
       <c r="H320">
         <v>2.00197115618999</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+      <c r="I320">
+        <v>2.0284933635540048</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
       <c r="B321">
@@ -8763,9 +10055,13 @@
       <c r="H321">
         <v>1.646838307375875</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+      <c r="I321">
+        <v>1.6685966507066221</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
       <c r="B322">
@@ -8789,9 +10085,13 @@
       <c r="H322">
         <v>0.78555186218133788</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+      <c r="I322">
+        <v>0.79575663750984282</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
       <c r="B323">
@@ -8815,9 +10115,13 @@
       <c r="H323">
         <v>0.46421395439452662</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+      <c r="I323">
+        <v>0.47010820168671202</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
       <c r="B324">
@@ -8841,9 +10145,13 @@
       <c r="H324">
         <v>0.55174053633032882</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+      <c r="I324">
+        <v>0.5588088927961129</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
       <c r="B325">
@@ -8867,9 +10175,13 @@
       <c r="H325">
         <v>0.80878362943707061</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="I325">
+        <v>0.8193000430182138</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
       <c r="B326">
@@ -8893,9 +10205,13 @@
       <c r="H326">
         <v>0.33274903446734522</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="I326">
+        <v>0.3368797698631546</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
       <c r="B327">
@@ -8919,9 +10235,13 @@
       <c r="H327">
         <v>0.47996909627158751</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="I327">
+        <v>0.48607468800565662</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
       <c r="B328">
@@ -8945,9 +10265,13 @@
       <c r="H328">
         <v>8.3837647037555751E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="I328">
+        <v>8.4629406582476238E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
       <c r="B329">
@@ -8971,9 +10295,13 @@
       <c r="H329">
         <v>-0.25909519574625928</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+      <c r="I329">
+        <v>-0.26290364550616541</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
       <c r="B330">
@@ -8997,9 +10325,13 @@
       <c r="H330">
         <v>-0.78290481948785406</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+      <c r="I330">
+        <v>-0.79373981673598915</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
       <c r="B331">
@@ -9023,9 +10355,13 @@
       <c r="H331">
         <v>-0.90655475754289039</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+      <c r="I331">
+        <v>-0.91904843405593506</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
       <c r="B332">
@@ -9049,9 +10385,13 @@
       <c r="H332">
         <v>-0.8284415222001893</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+      <c r="I332">
+        <v>-0.83988736313954959</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
       <c r="B333">
@@ -9075,9 +10415,13 @@
       <c r="H333">
         <v>-0.97747330397944621</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+      <c r="I333">
+        <v>-0.99091830424017835</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
       <c r="B334">
@@ -9101,9 +10445,13 @@
       <c r="H334">
         <v>-1.1534154736482569</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+      <c r="I334">
+        <v>-1.1692206176603179</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
       <c r="B335">
@@ -9127,9 +10475,13 @@
       <c r="H335">
         <v>-1.159367691524491</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+      <c r="I335">
+        <v>-1.175252680464312</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
       <c r="B336">
@@ -9153,9 +10505,13 @@
       <c r="H336">
         <v>-1.035555554062628</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="I336">
+        <v>-1.049779687943543</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
       <c r="B337">
@@ -9179,9 +10535,13 @@
       <c r="H337">
         <v>-0.85919684149643816</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+      <c r="I337">
+        <v>-0.87105524398823242</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
       <c r="B338">
@@ -9205,9 +10565,13 @@
       <c r="H338">
         <v>-0.77145007872750448</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="I338">
+        <v>-0.78213141847056544</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
       <c r="B339">
@@ -9231,9 +10595,13 @@
       <c r="H339">
         <v>-6.1593429136223968E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="I339">
+        <v>-6.275252791211855E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
       <c r="B340">
@@ -9257,9 +10625,13 @@
       <c r="H340">
         <v>-0.13027648649782531</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+      <c r="I340">
+        <v>-0.1323569214659433</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
       <c r="B341">
@@ -9283,9 +10655,13 @@
       <c r="H341">
         <v>-0.35296393271315368</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+      <c r="I341">
+        <v>-0.3580315673143894</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
       <c r="B342">
@@ -9309,9 +10685,13 @@
       <c r="H342">
         <v>1.726362241624428</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+      <c r="I342">
+        <v>1.749187344088879</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
       <c r="B343">
@@ -9335,9 +10715,13 @@
       <c r="H343">
         <v>2.2990651026226661</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+      <c r="I343">
+        <v>2.3295726218795081</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
       <c r="B344">
@@ -9361,9 +10745,13 @@
       <c r="H344">
         <v>2.3367102950855299</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+      <c r="I344">
+        <v>2.3677227988263421</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
       <c r="B345">
@@ -9387,9 +10775,13 @@
       <c r="H345">
         <v>2.659353005798625</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+      <c r="I345">
+        <v>2.6946935406137089</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
       <c r="B346">
@@ -9413,9 +10805,13 @@
       <c r="H346">
         <v>2.174115085067315</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+      <c r="I346">
+        <v>2.20294648538282</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
       <c r="B347">
@@ -9439,9 +10835,13 @@
       <c r="H347">
         <v>1.775681476666253</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+      <c r="I347">
+        <v>1.799168162903505</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
       <c r="B348">
@@ -9465,9 +10865,13 @@
       <c r="H348">
         <v>1.3514218848856949</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+      <c r="I348">
+        <v>1.3692174191588251</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
       <c r="B349">
@@ -9491,9 +10895,13 @@
       <c r="H349">
         <v>1.2886517085618581</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+      <c r="I349">
+        <v>1.3056052238937681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
       <c r="B350">
@@ -9517,9 +10925,13 @@
       <c r="H350">
         <v>0.84909071584464779</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+      <c r="I350">
+        <v>0.86014782139462487</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
       <c r="B351">
@@ -9543,9 +10955,13 @@
       <c r="H351">
         <v>0.79264463863184664</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+      <c r="I351">
+        <v>0.80294455870052817</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
       <c r="B352">
@@ -9569,9 +10985,13 @@
       <c r="H352">
         <v>0.65052984768761601</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+      <c r="I352">
+        <v>0.65892339513141818</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
       <c r="B353">
@@ -9595,9 +11015,13 @@
       <c r="H353">
         <v>1.1531755194243991</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+      <c r="I353">
+        <v>1.1683117144297011</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
       <c r="B354">
@@ -9621,9 +11045,13 @@
       <c r="H354">
         <v>1.335085453443605</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+      <c r="I354">
+        <v>1.3526618456733031</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
       <c r="B355">
@@ -9647,9 +11075,13 @@
       <c r="H355">
         <v>1.4463742096141969</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+      <c r="I355">
+        <v>1.465443464316625</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
       <c r="B356">
@@ -9673,9 +11105,13 @@
       <c r="H356">
         <v>1.446819602163248</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+      <c r="I356">
+        <v>1.4658948315017939</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
       <c r="B357">
@@ -9699,9 +11135,13 @@
       <c r="H357">
         <v>1.492896110086027</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+      <c r="I357">
+        <v>1.512589424233131</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
       <c r="B358">
@@ -9725,9 +11165,13 @@
       <c r="H358">
         <v>1.279584538514057</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+      <c r="I358">
+        <v>1.2964164239674061</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
       <c r="B359">
@@ -9751,9 +11195,13 @@
       <c r="H359">
         <v>1.135445258463865</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+      <c r="I359">
+        <v>1.150343614156998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
       <c r="B360">
@@ -9777,9 +11225,13 @@
       <c r="H360">
         <v>0.77359876152054474</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+      <c r="I360">
+        <v>0.78364319418710182</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
       <c r="B361">
@@ -9803,9 +11255,13 @@
       <c r="H361">
         <v>1.0812807322363029</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+      <c r="I361">
+        <v>1.0954525078925961</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
       <c r="B362">
@@ -9829,9 +11285,13 @@
       <c r="H362">
         <v>1.159946622528673</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+      <c r="I362">
+        <v>1.175173647246438</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
       <c r="B363">
@@ -9855,9 +11315,13 @@
       <c r="H363">
         <v>0.66000482094087021</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+      <c r="I363">
+        <v>0.66852546866404128</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
       <c r="B364">
@@ -9881,9 +11345,13 @@
       <c r="H364">
         <v>0.79324478169674062</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+      <c r="I364">
+        <v>0.80355275227376355</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
       <c r="B365">
@@ -9907,9 +11375,13 @@
       <c r="H365">
         <v>0.47349648751874568</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+      <c r="I365">
+        <v>0.47951525363771869</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
       <c r="B366">
@@ -9933,9 +11405,13 @@
       <c r="H366">
         <v>8.8367937899864857E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+      <c r="I366">
+        <v>8.9220468195143329E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
       <c r="B367">
@@ -9959,9 +11435,13 @@
       <c r="H367">
         <v>-0.74734796014381732</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+      <c r="I367">
+        <v>-0.75770598646704168</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
       <c r="B368">
@@ -9985,9 +11465,13 @@
       <c r="H368">
         <v>-0.81910065068807081</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+      <c r="I368">
+        <v>-0.83042119023110983</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
       <c r="B369">
@@ -10011,9 +11495,13 @@
       <c r="H369">
         <v>-1.1213963896210379</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+      <c r="I369">
+        <v>-1.136772019542007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
       <c r="B370">
@@ -10037,9 +11525,13 @@
       <c r="H370">
         <v>-1.095531395553156</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+      <c r="I370">
+        <v>-1.1105600642865801</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
       <c r="B371">
@@ -10063,9 +11555,13 @@
       <c r="H371">
         <v>-0.75906490878465072</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+      <c r="I371">
+        <v>-0.76958010995215131</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
       <c r="B372">
@@ -10089,9 +11585,13 @@
       <c r="H372">
         <v>-0.63038146340786827</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+      <c r="I372">
+        <v>-0.63917046425581359</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
       <c r="B373">
@@ -10115,9 +11615,13 @@
       <c r="H373">
         <v>-0.56325918987353529</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+      <c r="I373">
+        <v>-0.57114779137574512</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
       <c r="B374">
@@ -10141,9 +11645,13 @@
       <c r="H374">
         <v>-0.48967351356795108</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+      <c r="I374">
+        <v>-0.49657501360126982</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
       <c r="B375">
@@ -10167,9 +11675,13 @@
       <c r="H375">
         <v>-0.94880579149498279</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+      <c r="I375">
+        <v>-0.96186623670229188</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
       <c r="B376">
@@ -10193,9 +11705,13 @@
       <c r="H376">
         <v>-0.82467477698225056</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+      <c r="I376">
+        <v>-0.83607008961332807</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
       <c r="B377">
@@ -10219,9 +11735,13 @@
       <c r="H377">
         <v>-0.58799771207084228</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+      <c r="I377">
+        <v>-0.59621816391166615</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
       <c r="B378">
@@ -10245,9 +11765,13 @@
       <c r="H378">
         <v>-0.76775671551045099</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+      <c r="I378">
+        <v>-0.77838851131453168</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
       <c r="B379">
@@ -10271,9 +11795,13 @@
       <c r="H379">
         <v>-0.57336548198110926</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+      <c r="I379">
+        <v>-0.58138965247290064</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
       <c r="B380">
@@ -10297,9 +11825,13 @@
       <c r="H380">
         <v>9.3236960291692553E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+      <c r="I380">
+        <v>9.4154805188892701E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
       <c r="B381">
@@ -10323,9 +11855,13 @@
       <c r="H381">
         <v>1.3593404809525851</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+      <c r="I381">
+        <v>1.377242237770667</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
       <c r="B382">
@@ -10349,9 +11885,13 @@
       <c r="H382">
         <v>2.7402774506403742</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+      <c r="I382">
+        <v>2.7767035314799431</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
       <c r="B383">
@@ -10375,9 +11915,13 @@
       <c r="H383">
         <v>2.692679814423582</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+      <c r="I383">
+        <v>2.7284674055599338</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
       <c r="B384">
@@ -10401,9 +11945,13 @@
       <c r="H384">
         <v>2.7968064719711592</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+      <c r="I384">
+        <v>2.8339908509305798</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
       <c r="B385">
@@ -10427,9 +11975,13 @@
       <c r="H385">
         <v>2.24448631228868</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+      <c r="I385">
+        <v>2.274261694439311</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
       <c r="B386">
@@ -10453,9 +12005,13 @@
       <c r="H386">
         <v>2.163345819372382</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+      <c r="I386">
+        <v>2.1920327573615208</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
       <c r="B387">
@@ -10479,9 +12035,13 @@
       <c r="H387">
         <v>2.0841986216274391</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+      <c r="I387">
+        <v>2.111823854145146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
       <c r="B388">
@@ -10505,9 +12065,13 @@
       <c r="H388">
         <v>1.749953123176621</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+      <c r="I388">
+        <v>1.7730946811661381</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
       <c r="B389">
@@ -10531,9 +12095,13 @@
       <c r="H389">
         <v>1.2016594116148791</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+      <c r="I389">
+        <v>1.217445984840529</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
       <c r="B390">
@@ -10557,9 +12125,13 @@
       <c r="H390">
         <v>0.82254784166042005</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+      <c r="I390">
+        <v>0.83324889272518665</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
       <c r="B391">
@@ -10583,9 +12155,13 @@
       <c r="H391">
         <v>0.77317631229703254</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+      <c r="I391">
+        <v>0.78321507809647639</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
       <c r="B392">
@@ -10609,9 +12185,13 @@
       <c r="H392">
         <v>0.56861580854177562</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+      <c r="I392">
+        <v>0.57591053523100755</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
       <c r="B393">
@@ -10635,9 +12215,13 @@
       <c r="H393">
         <v>0.27411718687694248</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+      <c r="I393">
+        <v>0.27746141617827852</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
       <c r="B394">
@@ -10661,9 +12245,13 @@
       <c r="H394">
         <v>-0.84088192129376238</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+      <c r="I394">
+        <v>-0.8524946416699285</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
       <c r="B395">
@@ -10687,9 +12275,13 @@
       <c r="H395">
         <v>-0.232937594435349</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+      <c r="I395">
+        <v>-0.2363951578818721</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
       <c r="B396">
@@ -10713,9 +12305,13 @@
       <c r="H396">
         <v>-0.27337466549087902</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+      <c r="I396">
+        <v>-0.27737466456129722</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
       <c r="B397">
@@ -10739,9 +12335,13 @@
       <c r="H397">
         <v>-8.2390860404281785E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+      <c r="I397">
+        <v>-8.3828942482152266E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
       <c r="B398">
@@ -10765,9 +12365,13 @@
       <c r="H398">
         <v>4.9510091844751358E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+      <c r="I398">
+        <v>4.9841370738335E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
       <c r="B399">
@@ -10791,9 +12395,13 @@
       <c r="H399">
         <v>0.76341901002340884</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+      <c r="I399">
+        <v>0.77332688829296559</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
       <c r="B400">
@@ -10817,9 +12425,13 @@
       <c r="H400">
         <v>0.87544870259508134</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+      <c r="I400">
+        <v>0.88685938249192342</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
       <c r="B401">
@@ -10843,9 +12455,13 @@
       <c r="H401">
         <v>0.45110457516933289</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+      <c r="I401">
+        <v>0.45682296911424858</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
       <c r="B402">
@@ -10869,9 +12485,13 @@
       <c r="H402">
         <v>0.28797138712150983</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+      <c r="I402">
+        <v>0.29150146103416569</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
       <c r="B403">
@@ -10895,9 +12515,13 @@
       <c r="H403">
         <v>0.8008904039706608</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+      <c r="I403">
+        <v>0.81130093533608816</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
       <c r="B404">
@@ -10921,9 +12545,13 @@
       <c r="H404">
         <v>0.99874159903061288</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+      <c r="I404">
+        <v>1.0118061687234789</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
       <c r="B405">
@@ -10947,9 +12575,13 @@
       <c r="H405">
         <v>1.056414754468985</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+      <c r="I405">
+        <v>1.0702529700574519</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
       <c r="B406">
@@ -10973,9 +12605,13 @@
       <c r="H406">
         <v>0.87528770640201425</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+      <c r="I406">
+        <v>0.88669622664514869</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
       <c r="B407">
@@ -10999,9 +12635,13 @@
       <c r="H407">
         <v>1.0914582374963759</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+      <c r="I407">
+        <v>1.1057665374179371</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
       <c r="B408">
@@ -11025,9 +12665,13 @@
       <c r="H408">
         <v>1.1911527227546661</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+      <c r="I408">
+        <v>1.2067983559424209</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
       <c r="B409">
@@ -11051,9 +12695,13 @@
       <c r="H409">
         <v>0.5420671641776309</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+      <c r="I409">
+        <v>0.54900575897863924</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <f>DATE(2021,1,1)</f>
         <v>44197</v>
       </c>
       <c r="B410">
@@ -11077,9 +12725,13 @@
       <c r="H410">
         <v>-0.10350402326698981</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+      <c r="I410">
+        <v>-0.10522532397002</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <f>DATE(2021,2,1)</f>
         <v>44228</v>
       </c>
       <c r="B411">
@@ -11103,9 +12755,13 @@
       <c r="H411">
         <v>0.30468182963540003</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+      <c r="I411">
+        <v>0.30843606269395801</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <f>DATE(2021,3,1)</f>
         <v>44256</v>
       </c>
       <c r="B412">
@@ -11129,9 +12785,13 @@
       <c r="H412">
         <v>0.64336100080898628</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+      <c r="I412">
+        <v>0.65165838307989843</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <f>DATE(2021,4,1)</f>
         <v>44287</v>
       </c>
       <c r="B413">
@@ -11155,9 +12815,13 @@
       <c r="H413">
         <v>0.3345958093480767</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+      <c r="I413">
+        <v>0.33875131796455887</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
       <c r="B414">
@@ -11181,9 +12845,13 @@
       <c r="H414">
         <v>-0.54861112130812606</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+      <c r="I414">
+        <v>-0.55630322899899565</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <f>DATE(2021,6,1)</f>
         <v>44348</v>
       </c>
       <c r="B415">
@@ -11207,9 +12875,13 @@
       <c r="H415">
         <v>-0.56156535147969366</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+      <c r="I415">
+        <v>-0.5694312312994978</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <f>DATE(2021,7,1)</f>
         <v>44378</v>
       </c>
       <c r="B416">
@@ -11233,9 +12905,13 @@
       <c r="H416">
         <v>-0.47237747853739348</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+      <c r="I416">
+        <v>-0.47904696410211162</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <f>DATE(2021,8,1)</f>
         <v>44409</v>
       </c>
       <c r="B417">
@@ -11259,9 +12935,13 @@
       <c r="H417">
         <v>-0.5555122631702778</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+      <c r="I417">
+        <v>-0.56329694495451943</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <f>DATE(2021,9,1)</f>
         <v>44440</v>
       </c>
       <c r="B418">
@@ -11285,9 +12965,13 @@
       <c r="H418">
         <v>-0.52426572477593769</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+      <c r="I418">
+        <v>-0.53163125563984626</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <f>DATE(2021,10,1)</f>
         <v>44470</v>
       </c>
       <c r="B419">
@@ -11311,9 +12995,13 @@
       <c r="H419">
         <v>-0.42463060075005782</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+      <c r="I419">
+        <v>-0.43065959463806541</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <f>DATE(2021,11,1)</f>
         <v>44501</v>
       </c>
       <c r="B420">
@@ -11337,31 +13025,8 @@
       <c r="H420">
         <v>-0.39189844404598539</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B421">
-        <v>30</v>
-      </c>
-      <c r="C421">
-        <v>6.6283923843002412E-6</v>
-      </c>
-      <c r="D421">
-        <v>9.7330740195605507</v>
-      </c>
-      <c r="E421">
-        <v>12</v>
-      </c>
-      <c r="F421">
-        <v>9.8125461093946242</v>
-      </c>
-      <c r="G421">
-        <v>0.57745665677750224</v>
-      </c>
-      <c r="H421">
-        <v>-0.13762433751749889</v>
+      <c r="I420">
+        <v>-0.3974883584611294</v>
       </c>
     </row>
   </sheetData>
